--- a/2019/武汉店/99 项目管理/WBS_Levi‘s CMS System SI_(CN-WH)_20190814.xlsx
+++ b/2019/武汉店/99 项目管理/WBS_Levi‘s CMS System SI_(CN-WH)_20190814.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenhao/0103.CUBE/gitCube-levisProject/gitCube-levisProject/2019/武汉店/99 项目管理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\武汉店\99 项目管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="625"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="625"/>
   </bookViews>
   <sheets>
     <sheet name="WBS for Sibuya" sheetId="41" r:id="rId1"/>
@@ -29,11 +29,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'個人 (2)'!$A$1:$Z$114</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'個人 (2)'!$A:$F,'個人 (2)'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -48,7 +45,7 @@
     <author>LENOVO USER</author>
   </authors>
   <commentList>
-    <comment ref="R5" authorId="0">
+    <comment ref="R5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5" authorId="0">
+    <comment ref="S5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="0">
+    <comment ref="T5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R114" authorId="1">
+    <comment ref="R114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S114" authorId="1">
+    <comment ref="S114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T114" authorId="1">
+    <comment ref="T114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U114" authorId="1">
+    <comment ref="U114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R118" authorId="1">
+    <comment ref="R118" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S118" authorId="1">
+    <comment ref="S118" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T118" authorId="1">
+    <comment ref="T118" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U118" authorId="1">
+    <comment ref="U118" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V118" authorId="1">
+    <comment ref="V118" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W118" authorId="1">
+    <comment ref="W118" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="329">
   <si>
     <t>口座確認</t>
   </si>
@@ -1124,10 +1121,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>季</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>移动终端设备预装</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1468,8 +1461,107 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
+    <t>导入执行</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、ST派人去现场</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、根据实际情况来定</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、TODO：问下施（LED供应商）有没有这个资料　⇨ 施</t>
+    <rPh sb="21" eb="22">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zi'liao</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2019\武汉店\05 系统集成\LCD信息\43寸4mm边宽LCD(HV430FHB-N10).docx
+2、2019\武汉店\05 系统集成\LCD信息\49寸3.5mm边宽LCD(HLN490PB).docx</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2019\武汉店\04 基本设计\Levis WH CMS0726.pdf</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、TODO：对照东京的情况进行登记   ⇨ 陈</t>
+    <rPh sb="23" eb="24">
+      <t>chen</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2019\武汉店\04 基本设计\Levis WH CMS0726.pdf
+(LCD 49寸*4 43寸*8 共12台)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2019\武汉店\05 系统集成\LCD信息\1X1 49寸前维护 v2.0.pdf
+2、2019\武汉店\05 系统集成\LCD信息\2X2 43寸壁挂架 v1.0.pdf</t>
+    <rPh sb="97" eb="98">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、TODO：需要确认下状况和相关材料    ⇨ 季
+2019\武汉店\05 系统集成\LCD信息\LCD检收资料
+2019\武汉店\05 系统集成\LCD信息\拼接屏出厂验收清单_sample.docx</t>
+    <rPh sb="9" eb="10">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuang'k</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xiang'guan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cai'liao</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2019\武汉店\05 系统集成\数拓v8盒子安装手册tx.docx</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2019\武汉店\05 系统集成\LED信息\CMS FOR LED 的调整（LEIVS）20190815-EN.xlsx</t>
+    <rPh sb="7" eb="8">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi'l</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1、2019\武汉店\05 系统集成\LED信息CMS FOR LED 的调整（LEIVS）20190810.xlsx
+      <t xml:space="preserve">1、2019\武汉店\05 系统集成\LCD信息\拼接安装调试文档.doc
 </t>
     </r>
     <r>
@@ -1481,84 +1573,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>备注：最终方案现在还在确认中</t>
+      <t>2、前维护支架安装文档缺失</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入执行</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、ST派人去现场</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、根据实际情况来定</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、TODO：暂缺，待补齐    ⇨  Rebort
-2、2019\武汉店\04 基本设计\Levis WuHan_Specification for LED Screens V5.pdf</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、TODO：问下施（LED供应商）有没有这个资料　⇨ 施</t>
-    <rPh sb="21" eb="22">
-      <t>zhe'ge</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zi'liao</t>
-    </rPh>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、TODO：要一个V8盒子安装手册和插线连接说明　⇨ 季</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、TODO：需要资料　⇨ 季</t>
-    <rPh sb="7" eb="8">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zi'l</t>
-    </rPh>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1、2019\武汉店\05 系统集成\LCD信息\1X1 49寸前维护 v2.0.pdf
-2、2019\武汉店\05 系统集成\LCD信息\2X2 43寸壁挂架 v1.0.pdf
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3、TODO：需要确认下制造、配送情况　⇨ 张</t>
-    </r>
-    <rPh sb="97" eb="98">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>xia</t>
-    </rPh>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、TODO：东京店是下面的资料，是否可以沿用？　⇨ 张
-东京店\05 系统集成\LCD信息\室内拼接屏3X2-49寸.jpg
-\东京店\05 系统集成\LCD信息\室内拼接屏2X2-49寸.jpg
-\东京店\05 系统集成\LCD信息\室内拼接屏1X1-49寸.dwg</t>
     <rPh sb="7" eb="8">
       <t>dong'jing'dian</t>
     </rPh>
@@ -1586,46 +1602,19 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>1、TODO：确认下最终时间　⇨ 张</t>
+    <t>1、TODO：需要确认到店时间  ⇨ 张</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>1、2019\武汉店\05 系统集成\LCD信息\43寸4mm边宽LCD(HV430FHB-N10).docx
-2、2019\武汉店\05 系统集成\LCD信息\49寸3.5mm边宽LCD(HLN490PB).docx</t>
+    <t>Rebort</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>1、2019\武汉店\04 基本设计\Levis WH CMS0726.pdf</t>
+    <t>1、TODO：需要确认到店时间  ⇨ 郭</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>1、TODO：需要确认下状况和相关材料    ⇨ 季</t>
-    <rPh sb="9" eb="10">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhuang'k</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>he</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>xiang'guan</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>cai'liao</t>
-    </rPh>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、TODO：需要确认到店时间  ⇨ Rebort</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、TODO：需要确认下安装时间  ⇨ Rebort</t>
+    <t>1、TODO：需要确认下安装时间  ⇨ 郭</t>
     <rPh sb="7" eb="8">
       <t>xu'yao</t>
     </rPh>
@@ -1633,29 +1622,25 @@
   </si>
   <si>
     <t>48口的交换机需要采购
-1、是不是30个现在还在确认中
-2、TODO：需要问下时间  ⇨张</t>
+1、TODO：需要问下时间  ⇨张</t>
     <rPh sb="44" eb="45">
       <t>zhang'f</t>
     </rPh>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>1、TODO：对照东京的情况进行登记   ⇨ 陈</t>
-    <rPh sb="23" eb="24">
-      <t>chen</t>
-    </rPh>
+    <t>1、2019\武汉店\05 系统集成\CMS FOR LED 的调整（LEIVS）20190815-EN.xlsx</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>1、TODO：需要跟Rebort确认下状况  ⇨ Rebort</t>
+    <t>1、TODO：需要跟Rebort确认下状况  ⇨ 郭</t>
     <rPh sb="9" eb="10">
       <t>gen</t>
     </rPh>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>1、TODO：需要跟Rebort确认下状况  ⇨ Rebort</t>
+    <t>1、TODO：需要跟Rebort确认下状况  ⇨  郭</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -1673,7 +1658,7 @@
     <numFmt numFmtId="182" formatCode="0.0_ ;[Red]\-0.0\ "/>
     <numFmt numFmtId="183" formatCode="aaa"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1971,20 +1956,6 @@
     </font>
     <font>
       <i/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
@@ -3062,7 +3033,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3924,35 +3895,11 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="48" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="48" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4154,7 +4101,49 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="未定義" xfId="7"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4990,15 +4979,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>177800</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5043,12 +5032,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="ﾃﾚﾊﾞﾝ専用"/>
       <sheetName val="ﾃﾚﾊﾞﾝRTGS共用"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5341,7 +5328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BG127"/>
@@ -5349,54 +5336,54 @@
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="5" width="2.6640625" style="117" customWidth="1"/>
     <col min="6" max="6" width="33.33203125" style="117" customWidth="1"/>
-    <col min="7" max="14" width="9.5" style="117" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="117" customWidth="1"/>
-    <col min="16" max="16" width="43.1640625" style="117" customWidth="1"/>
+    <col min="7" max="14" width="9.44140625" style="117" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="117" customWidth="1"/>
+    <col min="16" max="16" width="43.109375" style="117" customWidth="1"/>
     <col min="17" max="17" width="2.33203125" style="117" customWidth="1"/>
-    <col min="18" max="18" width="7.1640625" style="117" customWidth="1"/>
+    <col min="18" max="18" width="7.109375" style="117" customWidth="1"/>
     <col min="19" max="20" width="8.33203125" style="117" customWidth="1"/>
     <col min="21" max="22" width="7.33203125" style="117" customWidth="1"/>
-    <col min="23" max="24" width="8.83203125" style="117"/>
+    <col min="23" max="24" width="8.77734375" style="117"/>
     <col min="25" max="33" width="3.6640625" style="117" bestFit="1" customWidth="1"/>
-    <col min="34" max="55" width="4.5" style="117" bestFit="1" customWidth="1"/>
+    <col min="34" max="55" width="4.44140625" style="117" bestFit="1" customWidth="1"/>
     <col min="56" max="59" width="3.6640625" style="117" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="8.83203125" style="117"/>
+    <col min="60" max="16384" width="8.77734375" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="304" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
+    <row r="1" spans="1:59" ht="19.5" customHeight="1" thickTop="1">
+      <c r="A1" s="296" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
       <c r="I1" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="329" t="s">
+      <c r="J1" s="321" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="330"/>
+      <c r="K1" s="322"/>
       <c r="L1" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="329" t="s">
+      <c r="M1" s="321" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="331"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="326"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="317"/>
+      <c r="P1" s="318"/>
       <c r="Q1" s="119"/>
       <c r="R1" s="119"/>
       <c r="S1" s="119"/>
@@ -5405,31 +5392,31 @@
       <c r="V1" s="119"/>
       <c r="W1" s="119"/>
     </row>
-    <row r="2" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="306"/>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
+    <row r="2" spans="1:59" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A2" s="298"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
       <c r="I2" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="J2" s="332">
+        <v>226</v>
+      </c>
+      <c r="J2" s="324">
         <v>43678</v>
       </c>
-      <c r="K2" s="333"/>
+      <c r="K2" s="325"/>
       <c r="L2" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="M2" s="332">
+      <c r="M2" s="324">
         <v>43690</v>
       </c>
-      <c r="N2" s="334"/>
-      <c r="O2" s="327"/>
-      <c r="P2" s="328"/>
+      <c r="N2" s="326"/>
+      <c r="O2" s="319"/>
+      <c r="P2" s="320"/>
       <c r="Q2" s="119"/>
       <c r="R2" s="119"/>
       <c r="S2" s="119"/>
@@ -5438,7 +5425,7 @@
       <c r="V2" s="119"/>
       <c r="W2" s="119"/>
     </row>
-    <row r="3" spans="1:59" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" ht="12.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="122"/>
       <c r="B3" s="122"/>
       <c r="C3" s="122"/>
@@ -5463,37 +5450,37 @@
       <c r="V3" s="122"/>
       <c r="W3" s="122"/>
     </row>
-    <row r="4" spans="1:59" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="312" t="s">
+    <row r="4" spans="1:59" ht="23.25" customHeight="1">
+      <c r="A4" s="304" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="313"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="317" t="s">
+      <c r="B4" s="305"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="309" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="319" t="s">
+      <c r="G4" s="311" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="321" t="s">
+      <c r="H4" s="313" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="322" t="s">
+      <c r="I4" s="314" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="323"/>
-      <c r="K4" s="324"/>
-      <c r="L4" s="322" t="s">
+      <c r="J4" s="315"/>
+      <c r="K4" s="316"/>
+      <c r="L4" s="314" t="s">
         <v>166</v>
       </c>
-      <c r="M4" s="323"/>
-      <c r="N4" s="324"/>
-      <c r="O4" s="308" t="s">
+      <c r="M4" s="315"/>
+      <c r="N4" s="316"/>
+      <c r="O4" s="300" t="s">
         <v>174</v>
       </c>
-      <c r="P4" s="310" t="s">
+      <c r="P4" s="302" t="s">
         <v>168</v>
       </c>
       <c r="Q4" s="122"/>
@@ -5643,15 +5630,15 @@
         <v>43712</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="315"/>
-      <c r="B5" s="316"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="316"/>
-      <c r="F5" s="318"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
+    <row r="5" spans="1:59" ht="40.200000000000003" thickBot="1">
+      <c r="A5" s="307"/>
+      <c r="B5" s="308"/>
+      <c r="C5" s="308"/>
+      <c r="D5" s="308"/>
+      <c r="E5" s="308"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
       <c r="I5" s="152" t="s">
         <v>176</v>
       </c>
@@ -5670,8 +5657,8 @@
       <c r="N5" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="O5" s="309"/>
-      <c r="P5" s="311"/>
+      <c r="O5" s="301"/>
+      <c r="P5" s="303"/>
       <c r="Q5" s="122"/>
       <c r="R5" s="129" t="s">
         <v>158</v>
@@ -5686,112 +5673,112 @@
       <c r="V5" s="122"/>
       <c r="W5" s="122"/>
       <c r="Y5" s="269" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z5" s="270" t="s">
         <v>281</v>
       </c>
-      <c r="Z5" s="270" t="s">
+      <c r="AA5" s="270" t="s">
         <v>282</v>
       </c>
-      <c r="AA5" s="270" t="s">
+      <c r="AB5" s="270" t="s">
         <v>283</v>
       </c>
-      <c r="AB5" s="270" t="s">
+      <c r="AC5" s="270" t="s">
         <v>284</v>
       </c>
-      <c r="AC5" s="270" t="s">
+      <c r="AD5" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="AD5" s="270" t="s">
+      <c r="AE5" s="270" t="s">
         <v>286</v>
       </c>
-      <c r="AE5" s="270" t="s">
-        <v>287</v>
-      </c>
       <c r="AF5" s="270" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG5" s="270" t="s">
         <v>281</v>
       </c>
-      <c r="AG5" s="270" t="s">
+      <c r="AH5" s="270" t="s">
         <v>282</v>
       </c>
-      <c r="AH5" s="270" t="s">
+      <c r="AI5" s="270" t="s">
         <v>283</v>
       </c>
-      <c r="AI5" s="270" t="s">
+      <c r="AJ5" s="270" t="s">
         <v>284</v>
       </c>
-      <c r="AJ5" s="270" t="s">
+      <c r="AK5" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="AK5" s="270" t="s">
+      <c r="AL5" s="270" t="s">
         <v>286</v>
       </c>
-      <c r="AL5" s="270" t="s">
-        <v>287</v>
-      </c>
       <c r="AM5" s="270" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN5" s="270" t="s">
         <v>281</v>
       </c>
-      <c r="AN5" s="270" t="s">
+      <c r="AO5" s="270" t="s">
         <v>282</v>
       </c>
-      <c r="AO5" s="270" t="s">
+      <c r="AP5" s="270" t="s">
         <v>283</v>
       </c>
-      <c r="AP5" s="270" t="s">
+      <c r="AQ5" s="270" t="s">
         <v>284</v>
       </c>
-      <c r="AQ5" s="270" t="s">
+      <c r="AR5" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="AR5" s="270" t="s">
+      <c r="AS5" s="270" t="s">
         <v>286</v>
       </c>
-      <c r="AS5" s="270" t="s">
-        <v>287</v>
-      </c>
       <c r="AT5" s="270" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU5" s="270" t="s">
         <v>281</v>
       </c>
-      <c r="AU5" s="270" t="s">
+      <c r="AV5" s="270" t="s">
         <v>282</v>
       </c>
-      <c r="AV5" s="270" t="s">
+      <c r="AW5" s="270" t="s">
         <v>283</v>
       </c>
-      <c r="AW5" s="270" t="s">
+      <c r="AX5" s="270" t="s">
         <v>284</v>
       </c>
-      <c r="AX5" s="270" t="s">
+      <c r="AY5" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="AY5" s="270" t="s">
+      <c r="AZ5" s="270" t="s">
         <v>286</v>
       </c>
-      <c r="AZ5" s="270" t="s">
-        <v>287</v>
-      </c>
       <c r="BA5" s="270" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB5" s="270" t="s">
         <v>281</v>
       </c>
-      <c r="BB5" s="270" t="s">
+      <c r="BC5" s="270" t="s">
         <v>282</v>
       </c>
-      <c r="BC5" s="270" t="s">
+      <c r="BD5" s="270" t="s">
         <v>283</v>
       </c>
-      <c r="BD5" s="270" t="s">
+      <c r="BE5" s="270" t="s">
         <v>284</v>
       </c>
-      <c r="BE5" s="270" t="s">
+      <c r="BF5" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="BF5" s="270" t="s">
+      <c r="BG5" s="271" t="s">
         <v>286</v>
       </c>
-      <c r="BG5" s="271" t="s">
-        <v>287</v>
-      </c>
     </row>
-    <row r="6" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:59" ht="16.8">
       <c r="A6" s="153">
         <v>0</v>
       </c>
@@ -5969,7 +5956,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:59" ht="16.8">
       <c r="A7" s="162">
         <v>0</v>
       </c>
@@ -5980,10 +5967,10 @@
       <c r="D7" s="163"/>
       <c r="E7" s="164"/>
       <c r="F7" s="212" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G7" s="231" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H7" s="223" t="s">
         <v>218</v>
@@ -6155,7 +6142,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:59" ht="16.8">
       <c r="A8" s="162">
         <v>0</v>
       </c>
@@ -6166,10 +6153,10 @@
       <c r="D8" s="163"/>
       <c r="E8" s="164"/>
       <c r="F8" s="212" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G8" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H8" s="223" t="s">
         <v>220</v>
@@ -6351,7 +6338,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:59" ht="16.8">
       <c r="A9" s="162">
         <v>0</v>
       </c>
@@ -6362,10 +6349,10 @@
       <c r="D9" s="163"/>
       <c r="E9" s="164"/>
       <c r="F9" s="212" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H9" s="223" t="s">
         <v>220</v>
@@ -6547,7 +6534,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:59" ht="16.8">
       <c r="A10" s="203">
         <v>0</v>
       </c>
@@ -6558,10 +6545,10 @@
       <c r="D10" s="204"/>
       <c r="E10" s="205"/>
       <c r="F10" s="266" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G10" s="267" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H10" s="268" t="s">
         <v>217</v>
@@ -6733,7 +6720,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:59" ht="16.8">
       <c r="A11" s="203">
         <v>0</v>
       </c>
@@ -6744,10 +6731,10 @@
       <c r="D11" s="204"/>
       <c r="E11" s="205"/>
       <c r="F11" s="266" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G11" s="267" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H11" s="268" t="s">
         <v>217</v>
@@ -6919,7 +6906,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:59" ht="16.8">
       <c r="A12" s="203">
         <v>0</v>
       </c>
@@ -6930,10 +6917,10 @@
       <c r="D12" s="204"/>
       <c r="E12" s="205"/>
       <c r="F12" s="266" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" s="267" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H12" s="268" t="s">
         <v>219</v>
@@ -7105,7 +7092,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:59" ht="16.8">
       <c r="A13" s="235">
         <v>0</v>
       </c>
@@ -7283,7 +7270,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:59" ht="16.8">
       <c r="A14" s="242">
         <v>1</v>
       </c>
@@ -7461,7 +7448,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:59" ht="16.8">
       <c r="A15" s="254">
         <v>1</v>
       </c>
@@ -7472,7 +7459,7 @@
       <c r="D15" s="255"/>
       <c r="E15" s="256"/>
       <c r="F15" s="265" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="257"/>
       <c r="H15" s="258"/>
@@ -7641,7 +7628,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:59" ht="16.8">
       <c r="A16" s="162">
         <v>1</v>
       </c>
@@ -7654,13 +7641,13 @@
       <c r="D16" s="163"/>
       <c r="E16" s="164"/>
       <c r="F16" s="219" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G16" s="231" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H16" s="223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I16" s="166"/>
       <c r="J16" s="166"/>
@@ -7668,11 +7655,9 @@
       <c r="L16" s="166"/>
       <c r="M16" s="166"/>
       <c r="N16" s="168"/>
-      <c r="O16" s="169">
-        <v>0</v>
-      </c>
-      <c r="P16" s="286" t="s">
-        <v>312</v>
+      <c r="O16" s="169"/>
+      <c r="P16" s="234" t="s">
+        <v>314</v>
       </c>
       <c r="Q16" s="130"/>
       <c r="R16" s="131" t="str">
@@ -7831,7 +7816,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:59" ht="26.4">
       <c r="A17" s="162">
         <v>1</v>
       </c>
@@ -7844,13 +7829,13 @@
       <c r="D17" s="163"/>
       <c r="E17" s="164"/>
       <c r="F17" s="233" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G17" s="231" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H17" s="232" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I17" s="166"/>
       <c r="J17" s="166"/>
@@ -7862,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="286" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="130"/>
       <c r="R17" s="131" t="str">
@@ -8021,7 +8006,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:59" ht="28" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:59" ht="26.4">
       <c r="A18" s="162">
         <v>1</v>
       </c>
@@ -8037,10 +8022,10 @@
         <v>196</v>
       </c>
       <c r="G18" s="231" t="s">
-        <v>264</v>
-      </c>
-      <c r="H18" s="223" t="s">
-        <v>224</v>
+        <v>263</v>
+      </c>
+      <c r="H18" s="232" t="s">
+        <v>223</v>
       </c>
       <c r="I18" s="166"/>
       <c r="J18" s="166"/>
@@ -8056,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="234" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="130"/>
       <c r="R18" s="131" t="str">
@@ -8215,7 +8200,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:59" ht="42" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:59" ht="26.4">
       <c r="A19" s="162">
         <v>1</v>
       </c>
@@ -8228,13 +8213,13 @@
       <c r="D19" s="163"/>
       <c r="E19" s="164"/>
       <c r="F19" s="233" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G19" s="231" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H19" s="223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I19" s="166"/>
       <c r="J19" s="166"/>
@@ -8250,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="234" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="130"/>
       <c r="R19" s="131" t="str">
@@ -8409,7 +8394,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:59" ht="16.8">
       <c r="A20" s="162">
         <v>1</v>
       </c>
@@ -8422,25 +8407,29 @@
       <c r="D20" s="163"/>
       <c r="E20" s="164"/>
       <c r="F20" s="233" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G20" s="231" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H20" s="232" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="I20" s="166"/>
       <c r="J20" s="166"/>
       <c r="K20" s="167"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
+      <c r="L20" s="166">
+        <v>43692</v>
+      </c>
+      <c r="M20" s="166">
+        <v>43692</v>
+      </c>
       <c r="N20" s="168"/>
       <c r="O20" s="169">
-        <v>0</v>
-      </c>
-      <c r="P20" s="286" t="s">
-        <v>314</v>
+        <v>1</v>
+      </c>
+      <c r="P20" s="234" t="s">
+        <v>318</v>
       </c>
       <c r="Q20" s="130"/>
       <c r="R20" s="131" t="str">
@@ -8516,7 +8505,7 @@
       </c>
       <c r="AM20" s="134" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="AN20" s="134" t="str">
         <f t="shared" si="7"/>
@@ -8599,38 +8588,42 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:59" ht="18" x14ac:dyDescent="0.15">
-      <c r="A21" s="287">
+    <row r="21" spans="1:59" ht="26.4">
+      <c r="A21" s="162">
         <v>1</v>
       </c>
-      <c r="B21" s="288">
+      <c r="B21" s="163">
         <v>1</v>
       </c>
-      <c r="C21" s="288">
-        <v>7</v>
-      </c>
-      <c r="D21" s="288"/>
-      <c r="E21" s="289"/>
-      <c r="F21" s="290" t="s">
+      <c r="C21" s="163">
+        <v>6</v>
+      </c>
+      <c r="D21" s="287"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="233" t="s">
+        <v>297</v>
+      </c>
+      <c r="G21" s="231" t="s">
         <v>298</v>
       </c>
-      <c r="G21" s="291" t="s">
-        <v>299</v>
-      </c>
-      <c r="H21" s="292" t="s">
+      <c r="H21" s="232" t="s">
         <v>223</v>
       </c>
-      <c r="I21" s="293"/>
-      <c r="J21" s="293"/>
-      <c r="K21" s="294"/>
-      <c r="L21" s="293"/>
-      <c r="M21" s="293"/>
-      <c r="N21" s="295"/>
-      <c r="O21" s="296">
-        <v>0</v>
-      </c>
-      <c r="P21" s="286" t="s">
-        <v>315</v>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="167"/>
+      <c r="L21" s="166">
+        <v>43678</v>
+      </c>
+      <c r="M21" s="166">
+        <v>43692</v>
+      </c>
+      <c r="N21" s="168"/>
+      <c r="O21" s="169">
+        <v>1</v>
+      </c>
+      <c r="P21" s="234" t="s">
+        <v>319</v>
       </c>
       <c r="Q21" s="130"/>
       <c r="R21" s="131" t="str">
@@ -8650,11 +8643,11 @@
       <c r="W21" s="130"/>
       <c r="Y21" s="133" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="Z21" s="134" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="AA21" s="134" t="str">
         <f t="shared" si="6"/>
@@ -8666,23 +8659,23 @@
       </c>
       <c r="AC21" s="134" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="AD21" s="134" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="AE21" s="134" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="AF21" s="134" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="AG21" s="134" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="AH21" s="134" t="str">
         <f t="shared" si="6"/>
@@ -8694,19 +8687,19 @@
       </c>
       <c r="AJ21" s="134" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="AK21" s="134" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="AL21" s="134" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="AM21" s="134" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>★</v>
       </c>
       <c r="AN21" s="134" t="str">
         <f t="shared" si="7"/>
@@ -8789,7 +8782,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:59" ht="16.8">
       <c r="A22" s="162">
         <v>1</v>
       </c>
@@ -8797,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="163">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="163"/>
       <c r="E22" s="164"/>
@@ -8969,7 +8962,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:59" ht="16.8">
       <c r="A23" s="254">
         <v>1</v>
       </c>
@@ -9149,7 +9142,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:59" ht="16.8">
       <c r="A24" s="162">
         <v>1</v>
       </c>
@@ -9162,13 +9155,13 @@
       <c r="D24" s="163"/>
       <c r="E24" s="164"/>
       <c r="F24" s="233" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G24" s="231" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H24" s="223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I24" s="166"/>
       <c r="J24" s="166"/>
@@ -9180,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="234" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="Q24" s="130"/>
       <c r="R24" s="131" t="str">
@@ -9339,7 +9332,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:59" ht="16.8">
       <c r="A25" s="162">
         <v>1</v>
       </c>
@@ -9355,10 +9348,10 @@
         <v>202</v>
       </c>
       <c r="G25" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H25" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I25" s="166"/>
       <c r="J25" s="166"/>
@@ -9370,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="234" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="130"/>
       <c r="R25" s="131" t="str">
@@ -9529,7 +9522,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:59" ht="56" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:59" ht="52.8">
       <c r="A26" s="162">
         <v>1</v>
       </c>
@@ -9542,13 +9535,13 @@
       <c r="D26" s="163"/>
       <c r="E26" s="164"/>
       <c r="F26" s="233" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="231" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="223" t="s">
         <v>267</v>
-      </c>
-      <c r="H26" s="223" t="s">
-        <v>268</v>
       </c>
       <c r="I26" s="166"/>
       <c r="J26" s="166"/>
@@ -9560,7 +9553,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="234" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="130"/>
       <c r="R26" s="131" t="str">
@@ -9719,7 +9712,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:59" ht="16.8">
       <c r="A27" s="162">
         <v>1</v>
       </c>
@@ -9735,10 +9728,10 @@
         <v>186</v>
       </c>
       <c r="G27" s="231" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H27" s="223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I27" s="166"/>
       <c r="J27" s="166"/>
@@ -9750,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="234" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q27" s="130"/>
       <c r="R27" s="131" t="str">
@@ -9909,7 +9902,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:59" ht="16.8">
       <c r="A28" s="162">
         <v>1</v>
       </c>
@@ -9925,10 +9918,10 @@
         <v>203</v>
       </c>
       <c r="G28" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" s="232" t="s">
         <v>265</v>
-      </c>
-      <c r="H28" s="232" t="s">
-        <v>266</v>
       </c>
       <c r="I28" s="166"/>
       <c r="J28" s="166"/>
@@ -9940,7 +9933,7 @@
         <v>0.75</v>
       </c>
       <c r="P28" s="234" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="130"/>
       <c r="R28" s="131" t="str">
@@ -10099,7 +10092,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:59" ht="70" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:59" ht="52.8">
       <c r="A29" s="162">
         <v>1</v>
       </c>
@@ -10115,10 +10108,10 @@
         <v>204</v>
       </c>
       <c r="G29" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H29" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I29" s="166"/>
       <c r="J29" s="166"/>
@@ -10127,7 +10120,7 @@
       <c r="M29" s="166"/>
       <c r="N29" s="168"/>
       <c r="O29" s="169">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P29" s="234" t="s">
         <v>316</v>
@@ -10289,7 +10282,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:59" ht="56" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:59" ht="39.6">
       <c r="A30" s="162">
         <v>1</v>
       </c>
@@ -10302,13 +10295,13 @@
       <c r="D30" s="163"/>
       <c r="E30" s="164"/>
       <c r="F30" s="233" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G30" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H30" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H30" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I30" s="166"/>
       <c r="J30" s="166"/>
@@ -10316,9 +10309,11 @@
       <c r="L30" s="166"/>
       <c r="M30" s="166"/>
       <c r="N30" s="168"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="286" t="s">
-        <v>317</v>
+      <c r="O30" s="169">
+        <v>0.5</v>
+      </c>
+      <c r="P30" s="234" t="s">
+        <v>320</v>
       </c>
       <c r="Q30" s="130"/>
       <c r="R30" s="131" t="str">
@@ -10477,7 +10472,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:59" ht="26.4">
       <c r="A31" s="162">
         <v>1</v>
       </c>
@@ -10490,13 +10485,13 @@
       <c r="D31" s="163"/>
       <c r="E31" s="164"/>
       <c r="F31" s="233" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G31" s="222" t="s">
+        <v>264</v>
+      </c>
+      <c r="H31" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H31" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I31" s="166"/>
       <c r="J31" s="166"/>
@@ -10504,9 +10499,11 @@
       <c r="L31" s="166"/>
       <c r="M31" s="166"/>
       <c r="N31" s="168"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="286" t="s">
-        <v>318</v>
+      <c r="O31" s="169">
+        <v>1</v>
+      </c>
+      <c r="P31" s="234" t="s">
+        <v>315</v>
       </c>
       <c r="Q31" s="130"/>
       <c r="R31" s="131" t="str">
@@ -10665,7 +10662,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:59" ht="16.8">
       <c r="A32" s="162">
         <v>1</v>
       </c>
@@ -10740,7 +10737,7 @@
       <c r="BF32" s="134"/>
       <c r="BG32" s="135"/>
     </row>
-    <row r="33" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:59" ht="16.8">
       <c r="A33" s="254">
         <v>1</v>
       </c>
@@ -10751,7 +10748,7 @@
       <c r="D33" s="255"/>
       <c r="E33" s="256"/>
       <c r="F33" s="265" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G33" s="257"/>
       <c r="H33" s="258"/>
@@ -10920,7 +10917,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:59" ht="16.8">
       <c r="A34" s="272">
         <v>1</v>
       </c>
@@ -10933,13 +10930,13 @@
       <c r="D34" s="273"/>
       <c r="E34" s="274"/>
       <c r="F34" s="275" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G34" s="276" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H34" s="277" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I34" s="278"/>
       <c r="J34" s="278"/>
@@ -11106,7 +11103,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:59" ht="16.8">
       <c r="A35" s="272">
         <v>1</v>
       </c>
@@ -11119,13 +11116,13 @@
       <c r="D35" s="273"/>
       <c r="E35" s="274"/>
       <c r="F35" s="275" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G35" s="279" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" s="277" t="s">
         <v>265</v>
-      </c>
-      <c r="H35" s="277" t="s">
-        <v>266</v>
       </c>
       <c r="I35" s="278"/>
       <c r="J35" s="278"/>
@@ -11292,7 +11289,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:59" ht="16.8">
       <c r="A36" s="272">
         <v>1</v>
       </c>
@@ -11305,13 +11302,13 @@
       <c r="D36" s="273"/>
       <c r="E36" s="274"/>
       <c r="F36" s="280" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G36" s="276" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="277" t="s">
         <v>267</v>
-      </c>
-      <c r="H36" s="277" t="s">
-        <v>268</v>
       </c>
       <c r="I36" s="278"/>
       <c r="J36" s="278"/>
@@ -11478,7 +11475,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:59" ht="16.8">
       <c r="A37" s="272">
         <v>1</v>
       </c>
@@ -11491,13 +11488,13 @@
       <c r="D37" s="273"/>
       <c r="E37" s="274"/>
       <c r="F37" s="275" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G37" s="276" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="277" t="s">
         <v>267</v>
-      </c>
-      <c r="H37" s="277" t="s">
-        <v>268</v>
       </c>
       <c r="I37" s="278"/>
       <c r="J37" s="278"/>
@@ -11664,7 +11661,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:59" ht="16.8">
       <c r="A38" s="272">
         <v>1</v>
       </c>
@@ -11677,13 +11674,13 @@
       <c r="D38" s="273"/>
       <c r="E38" s="274"/>
       <c r="F38" s="275" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G38" s="276" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="277" t="s">
         <v>267</v>
-      </c>
-      <c r="H38" s="277" t="s">
-        <v>268</v>
       </c>
       <c r="I38" s="278"/>
       <c r="J38" s="278"/>
@@ -11850,7 +11847,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:59" ht="16.8">
       <c r="A39" s="162">
         <v>1</v>
       </c>
@@ -11925,7 +11922,7 @@
       <c r="BF39" s="134"/>
       <c r="BG39" s="135"/>
     </row>
-    <row r="40" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:59" ht="16.8">
       <c r="A40" s="242">
         <v>2</v>
       </c>
@@ -12103,7 +12100,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:59" ht="16.8">
       <c r="A41" s="254">
         <v>2</v>
       </c>
@@ -12114,7 +12111,7 @@
       <c r="D41" s="255"/>
       <c r="E41" s="256"/>
       <c r="F41" s="265" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G41" s="257"/>
       <c r="H41" s="258"/>
@@ -12287,7 +12284,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:59" ht="16.8">
       <c r="A42" s="162">
         <v>2</v>
       </c>
@@ -12300,13 +12297,13 @@
       <c r="D42" s="163"/>
       <c r="E42" s="164"/>
       <c r="F42" s="233" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G42" s="231" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H42" s="232" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I42" s="166"/>
       <c r="J42" s="166"/>
@@ -12473,7 +12470,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:59" ht="16.8">
       <c r="A43" s="162">
         <v>2</v>
       </c>
@@ -12489,10 +12486,10 @@
         <v>197</v>
       </c>
       <c r="G43" s="222" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="223" t="s">
         <v>267</v>
-      </c>
-      <c r="H43" s="223" t="s">
-        <v>268</v>
       </c>
       <c r="I43" s="166"/>
       <c r="J43" s="166"/>
@@ -12659,7 +12656,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:59" ht="16.8">
       <c r="A44" s="272">
         <v>2</v>
       </c>
@@ -12672,13 +12669,13 @@
       <c r="D44" s="273"/>
       <c r="E44" s="274"/>
       <c r="F44" s="280" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G44" s="276" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="277" t="s">
         <v>267</v>
-      </c>
-      <c r="H44" s="277" t="s">
-        <v>268</v>
       </c>
       <c r="I44" s="278"/>
       <c r="J44" s="278"/>
@@ -12688,7 +12685,7 @@
       <c r="N44" s="282"/>
       <c r="O44" s="283"/>
       <c r="P44" s="284" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q44" s="130"/>
       <c r="R44" s="131" t="str">
@@ -12847,7 +12844,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:59" ht="16.8">
       <c r="A45" s="162">
         <v>2</v>
       </c>
@@ -13027,7 +13024,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:59" ht="16.8">
       <c r="A46" s="254">
         <v>2</v>
       </c>
@@ -13207,7 +13204,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:59" ht="16.8">
       <c r="A47" s="162">
         <v>2</v>
       </c>
@@ -13223,10 +13220,10 @@
         <v>187</v>
       </c>
       <c r="G47" s="222" t="s">
+        <v>264</v>
+      </c>
+      <c r="H47" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H47" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I47" s="166"/>
       <c r="J47" s="166"/>
@@ -13393,7 +13390,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:59" ht="16.8">
       <c r="A48" s="162">
         <v>2</v>
       </c>
@@ -13409,10 +13406,10 @@
         <v>188</v>
       </c>
       <c r="G48" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H48" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H48" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I48" s="166"/>
       <c r="J48" s="166"/>
@@ -13579,7 +13576,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:59" ht="52.8">
       <c r="A49" s="162">
         <v>2</v>
       </c>
@@ -13595,10 +13592,10 @@
         <v>189</v>
       </c>
       <c r="G49" s="222" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="223" t="s">
         <v>267</v>
-      </c>
-      <c r="H49" s="223" t="s">
-        <v>268</v>
       </c>
       <c r="I49" s="166"/>
       <c r="J49" s="166"/>
@@ -13608,7 +13605,7 @@
       <c r="N49" s="168"/>
       <c r="O49" s="169"/>
       <c r="P49" s="286" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q49" s="130"/>
       <c r="R49" s="131" t="str">
@@ -13767,7 +13764,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:59" ht="16.8">
       <c r="A50" s="272">
         <v>2</v>
       </c>
@@ -13783,10 +13780,10 @@
         <v>190</v>
       </c>
       <c r="G50" s="276" t="s">
+        <v>266</v>
+      </c>
+      <c r="H50" s="277" t="s">
         <v>267</v>
-      </c>
-      <c r="H50" s="277" t="s">
-        <v>268</v>
       </c>
       <c r="I50" s="278"/>
       <c r="J50" s="278"/>
@@ -13795,8 +13792,8 @@
       <c r="M50" s="278"/>
       <c r="N50" s="282"/>
       <c r="O50" s="283"/>
-      <c r="P50" s="298" t="s">
-        <v>305</v>
+      <c r="P50" s="290" t="s">
+        <v>304</v>
       </c>
       <c r="Q50" s="130"/>
       <c r="R50" s="131" t="str">
@@ -13955,7 +13952,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:59" ht="16.8">
       <c r="A51" s="162">
         <v>2</v>
       </c>
@@ -14135,7 +14132,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:59" ht="16.8">
       <c r="A52" s="254">
         <v>2</v>
       </c>
@@ -14315,7 +14312,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:59" ht="16.8">
       <c r="A53" s="272">
         <v>2</v>
       </c>
@@ -14328,13 +14325,13 @@
       <c r="D53" s="273"/>
       <c r="E53" s="274"/>
       <c r="F53" s="275" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G53" s="276" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" s="277" t="s">
         <v>267</v>
-      </c>
-      <c r="H53" s="277" t="s">
-        <v>268</v>
       </c>
       <c r="I53" s="278"/>
       <c r="J53" s="278"/>
@@ -14501,7 +14498,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:59" ht="16.8">
       <c r="A54" s="272">
         <v>2</v>
       </c>
@@ -14514,13 +14511,13 @@
       <c r="D54" s="273"/>
       <c r="E54" s="274"/>
       <c r="F54" s="275" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G54" s="279" t="s">
+        <v>264</v>
+      </c>
+      <c r="H54" s="277" t="s">
         <v>265</v>
-      </c>
-      <c r="H54" s="277" t="s">
-        <v>266</v>
       </c>
       <c r="I54" s="278"/>
       <c r="J54" s="278"/>
@@ -14687,7 +14684,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:59" ht="16.8">
       <c r="A55" s="162">
         <v>2</v>
       </c>
@@ -14867,7 +14864,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:59" ht="16.8">
       <c r="A56" s="242">
         <v>3</v>
       </c>
@@ -15045,7 +15042,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:59" ht="16.8">
       <c r="A57" s="254">
         <v>3</v>
       </c>
@@ -15056,7 +15053,7 @@
       <c r="D57" s="255"/>
       <c r="E57" s="256"/>
       <c r="F57" s="265" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G57" s="257"/>
       <c r="H57" s="258"/>
@@ -15225,7 +15222,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:59" ht="16.8">
       <c r="A58" s="162">
         <v>3</v>
       </c>
@@ -15238,13 +15235,13 @@
       <c r="D58" s="163"/>
       <c r="E58" s="164"/>
       <c r="F58" s="219" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G58" s="231" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H58" s="232" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="I58" s="166"/>
       <c r="J58" s="166"/>
@@ -15253,8 +15250,8 @@
       <c r="M58" s="166"/>
       <c r="N58" s="168"/>
       <c r="O58" s="169"/>
-      <c r="P58" s="297" t="s">
-        <v>322</v>
+      <c r="P58" s="289" t="s">
+        <v>323</v>
       </c>
       <c r="Q58" s="130"/>
       <c r="R58" s="131" t="str">
@@ -15413,7 +15410,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:59" ht="16.8">
       <c r="A59" s="162">
         <v>3</v>
       </c>
@@ -15593,7 +15590,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:59" ht="16.8">
       <c r="A60" s="254">
         <v>3</v>
       </c>
@@ -15773,7 +15770,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:59" ht="16.8">
       <c r="A61" s="162">
         <v>3</v>
       </c>
@@ -15789,10 +15786,10 @@
         <v>205</v>
       </c>
       <c r="G61" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H61" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H61" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I61" s="166"/>
       <c r="J61" s="166"/>
@@ -15801,8 +15798,8 @@
       <c r="M61" s="166"/>
       <c r="N61" s="168"/>
       <c r="O61" s="169"/>
-      <c r="P61" s="301" t="s">
-        <v>322</v>
+      <c r="P61" s="293" t="s">
+        <v>321</v>
       </c>
       <c r="Q61" s="130"/>
       <c r="R61" s="131" t="str">
@@ -15961,7 +15958,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:59" ht="16.8">
       <c r="A62" s="162">
         <v>3</v>
       </c>
@@ -15977,10 +15974,10 @@
         <v>191</v>
       </c>
       <c r="G62" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H62" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H62" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I62" s="166"/>
       <c r="J62" s="166"/>
@@ -15989,7 +15986,7 @@
       <c r="M62" s="166"/>
       <c r="N62" s="168"/>
       <c r="O62" s="169"/>
-      <c r="P62" s="302"/>
+      <c r="P62" s="294"/>
       <c r="Q62" s="130"/>
       <c r="R62" s="131" t="str">
         <f>IF($J62="","",IF($J62&lt;=$L$2,$K62,IF($I62&lt;=$L$2,NETWORKDAYS($I62,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I62,$J62,holiday!$C$3:$C$10)*$K62,0)))</f>
@@ -16147,7 +16144,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:59" ht="16.8">
       <c r="A63" s="162">
         <v>3</v>
       </c>
@@ -16163,10 +16160,10 @@
         <v>192</v>
       </c>
       <c r="G63" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H63" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H63" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I63" s="166"/>
       <c r="J63" s="166"/>
@@ -16175,7 +16172,7 @@
       <c r="M63" s="166"/>
       <c r="N63" s="168"/>
       <c r="O63" s="169"/>
-      <c r="P63" s="302"/>
+      <c r="P63" s="294"/>
       <c r="Q63" s="130"/>
       <c r="R63" s="131" t="str">
         <f>IF($J63="","",IF($J63&lt;=$L$2,$K63,IF($I63&lt;=$L$2,NETWORKDAYS($I63,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I63,$J63,holiday!$C$3:$C$10)*$K63,0)))</f>
@@ -16333,7 +16330,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:59" ht="16.8">
       <c r="A64" s="162">
         <v>3</v>
       </c>
@@ -16349,10 +16346,10 @@
         <v>193</v>
       </c>
       <c r="G64" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H64" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I64" s="166"/>
       <c r="J64" s="166"/>
@@ -16361,7 +16358,7 @@
       <c r="M64" s="166"/>
       <c r="N64" s="168"/>
       <c r="O64" s="169"/>
-      <c r="P64" s="302"/>
+      <c r="P64" s="294"/>
       <c r="Q64" s="130"/>
       <c r="R64" s="131" t="str">
         <f>IF($J64="","",IF($J64&lt;=$L$2,$K64,IF($I64&lt;=$L$2,NETWORKDAYS($I64,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I64,$J64,holiday!$C$3:$C$10)*$K64,0)))</f>
@@ -16519,7 +16516,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:59" ht="16.8">
       <c r="A65" s="162">
         <v>3</v>
       </c>
@@ -16535,10 +16532,10 @@
         <v>194</v>
       </c>
       <c r="G65" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H65" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H65" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I65" s="166"/>
       <c r="J65" s="166"/>
@@ -16547,7 +16544,7 @@
       <c r="M65" s="166"/>
       <c r="N65" s="168"/>
       <c r="O65" s="169"/>
-      <c r="P65" s="302"/>
+      <c r="P65" s="294"/>
       <c r="Q65" s="130"/>
       <c r="R65" s="131" t="str">
         <f>IF($J65="","",IF($J65&lt;=$L$2,$K65,IF($I65&lt;=$L$2,NETWORKDAYS($I65,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I65,$J65,holiday!$C$3:$C$10)*$K65,0)))</f>
@@ -16705,7 +16702,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:59" ht="16.8">
       <c r="A66" s="162">
         <v>3</v>
       </c>
@@ -16721,10 +16718,10 @@
         <v>195</v>
       </c>
       <c r="G66" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H66" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H66" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I66" s="166"/>
       <c r="J66" s="166"/>
@@ -16733,7 +16730,7 @@
       <c r="M66" s="166"/>
       <c r="N66" s="168"/>
       <c r="O66" s="169"/>
-      <c r="P66" s="303"/>
+      <c r="P66" s="295"/>
       <c r="Q66" s="130"/>
       <c r="R66" s="131" t="str">
         <f>IF($J66="","",IF($J66&lt;=$L$2,$K66,IF($I66&lt;=$L$2,NETWORKDAYS($I66,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I66,$J66,holiday!$C$3:$C$10)*$K66,0)))</f>
@@ -16891,7 +16888,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:59" ht="16.8">
       <c r="A67" s="162">
         <v>3</v>
       </c>
@@ -17071,7 +17068,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:59" ht="16.8">
       <c r="A68" s="242">
         <v>4</v>
       </c>
@@ -17253,7 +17250,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:59" ht="16.8">
       <c r="A69" s="254">
         <v>4</v>
       </c>
@@ -17264,7 +17261,7 @@
       <c r="D69" s="255"/>
       <c r="E69" s="256"/>
       <c r="F69" s="265" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G69" s="257"/>
       <c r="H69" s="258"/>
@@ -17433,7 +17430,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:59" ht="16.8">
       <c r="A70" s="162">
         <v>4</v>
       </c>
@@ -17446,13 +17443,13 @@
       <c r="D70" s="163"/>
       <c r="E70" s="164"/>
       <c r="F70" s="233" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G70" s="231" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H70" s="232" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I70" s="166">
         <v>43703</v>
@@ -17466,7 +17463,7 @@
       <c r="N70" s="168"/>
       <c r="O70" s="169"/>
       <c r="P70" s="286" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q70" s="130"/>
       <c r="R70" s="131">
@@ -17625,7 +17622,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:59" ht="16.8">
       <c r="A71" s="162">
         <v>4</v>
       </c>
@@ -17805,7 +17802,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:59" ht="16.8">
       <c r="A72" s="254">
         <v>4</v>
       </c>
@@ -17985,7 +17982,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:59" ht="16.8">
       <c r="A73" s="162">
         <v>4</v>
       </c>
@@ -17998,13 +17995,13 @@
       <c r="D73" s="163"/>
       <c r="E73" s="164"/>
       <c r="F73" s="233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G73" s="231" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H73" s="232" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I73" s="166">
         <v>43703</v>
@@ -18018,7 +18015,7 @@
       <c r="N73" s="168"/>
       <c r="O73" s="169"/>
       <c r="P73" s="286" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q73" s="130"/>
       <c r="R73" s="131">
@@ -18177,7 +18174,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:59" ht="16.8">
       <c r="A74" s="162">
         <v>4</v>
       </c>
@@ -18357,7 +18354,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:59" ht="16.8">
       <c r="A75" s="254">
         <v>4</v>
       </c>
@@ -18537,7 +18534,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:59" ht="16.8">
       <c r="A76" s="272">
         <v>4</v>
       </c>
@@ -18550,13 +18547,13 @@
       <c r="D76" s="273"/>
       <c r="E76" s="274"/>
       <c r="F76" s="280" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G76" s="279" t="s">
-        <v>260</v>
-      </c>
-      <c r="H76" s="299" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="H76" s="291" t="s">
+        <v>261</v>
       </c>
       <c r="I76" s="278">
         <v>43703</v>
@@ -18569,7 +18566,7 @@
       <c r="M76" s="278"/>
       <c r="N76" s="282"/>
       <c r="O76" s="283"/>
-      <c r="P76" s="300"/>
+      <c r="P76" s="292"/>
       <c r="Q76" s="130"/>
       <c r="R76" s="131">
         <f>IF($J76="","",IF($J76&lt;=$L$2,$K76,IF($I76&lt;=$L$2,NETWORKDAYS($I76,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I76,$J76,holiday!$C$3:$C$10)*$K76,0)))</f>
@@ -18727,7 +18724,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:59" ht="16.8">
       <c r="A77" s="272">
         <v>4</v>
       </c>
@@ -18907,7 +18904,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:59" ht="16.8">
       <c r="A78" s="242">
         <v>5</v>
       </c>
@@ -19085,7 +19082,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:59" ht="16.8">
       <c r="A79" s="254">
         <v>5</v>
       </c>
@@ -19265,7 +19262,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:59" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:59" ht="40.5" customHeight="1">
       <c r="A80" s="162">
         <v>5</v>
       </c>
@@ -19278,13 +19275,13 @@
       <c r="D80" s="163"/>
       <c r="E80" s="164"/>
       <c r="F80" s="233" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G80" s="222" t="s">
+        <v>264</v>
+      </c>
+      <c r="H80" s="232" t="s">
         <v>265</v>
-      </c>
-      <c r="H80" s="232" t="s">
-        <v>266</v>
       </c>
       <c r="I80" s="166"/>
       <c r="J80" s="166"/>
@@ -19295,8 +19292,8 @@
       <c r="O80" s="169">
         <v>0</v>
       </c>
-      <c r="P80" s="301" t="s">
-        <v>324</v>
+      <c r="P80" s="293" t="s">
+        <v>325</v>
       </c>
       <c r="Q80" s="130"/>
       <c r="R80" s="131" t="str">
@@ -19455,7 +19452,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:59" ht="16.8">
       <c r="A81" s="162">
         <v>5</v>
       </c>
@@ -19468,13 +19465,13 @@
       <c r="D81" s="163"/>
       <c r="E81" s="164"/>
       <c r="F81" s="233" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G81" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H81" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H81" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I81" s="166"/>
       <c r="J81" s="166"/>
@@ -19483,7 +19480,7 @@
       <c r="M81" s="166"/>
       <c r="N81" s="168"/>
       <c r="O81" s="169"/>
-      <c r="P81" s="302"/>
+      <c r="P81" s="294"/>
       <c r="Q81" s="130"/>
       <c r="R81" s="131" t="str">
         <f>IF($J81="","",IF($J81&lt;=$L$2,$K81,IF($I81&lt;=$L$2,NETWORKDAYS($I81,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I81,$J81,holiday!$C$3:$C$10)*$K81,0)))</f>
@@ -19641,7 +19638,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:59" ht="16.8">
       <c r="A82" s="162">
         <v>5</v>
       </c>
@@ -19654,13 +19651,13 @@
       <c r="D82" s="163"/>
       <c r="E82" s="164"/>
       <c r="F82" s="233" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G82" s="231" t="s">
+        <v>264</v>
+      </c>
+      <c r="H82" s="223" t="s">
         <v>265</v>
-      </c>
-      <c r="H82" s="223" t="s">
-        <v>266</v>
       </c>
       <c r="I82" s="166"/>
       <c r="J82" s="166"/>
@@ -19669,7 +19666,7 @@
       <c r="M82" s="166"/>
       <c r="N82" s="168"/>
       <c r="O82" s="169"/>
-      <c r="P82" s="303"/>
+      <c r="P82" s="295"/>
       <c r="Q82" s="130"/>
       <c r="R82" s="131" t="str">
         <f>IF($J82="","",IF($J82&lt;=$L$2,$K82,IF($I82&lt;=$L$2,NETWORKDAYS($I82,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I82,$J82,holiday!$C$3:$C$10)*$K82,0)))</f>
@@ -19827,7 +19824,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:59" ht="16.8">
       <c r="A83" s="162">
         <v>5</v>
       </c>
@@ -19840,13 +19837,13 @@
       <c r="D83" s="163"/>
       <c r="E83" s="164"/>
       <c r="F83" s="233" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G83" s="231" t="s">
+        <v>271</v>
+      </c>
+      <c r="H83" s="232" t="s">
         <v>272</v>
-      </c>
-      <c r="H83" s="232" t="s">
-        <v>273</v>
       </c>
       <c r="I83" s="166">
         <v>43696</v>
@@ -19864,7 +19861,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="286" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="Q83" s="130"/>
       <c r="R83" s="131">
@@ -20023,7 +20020,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:59" ht="42" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:59" ht="39.6">
       <c r="A84" s="162">
         <v>5</v>
       </c>
@@ -20036,13 +20033,13 @@
       <c r="D84" s="163"/>
       <c r="E84" s="164"/>
       <c r="F84" s="233" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G84" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H84" s="232" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I84" s="166">
         <v>43696</v>
@@ -20066,7 +20063,7 @@
         <v>1</v>
       </c>
       <c r="P84" s="234" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q84" s="130"/>
       <c r="R84" s="131">
@@ -20225,7 +20222,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:59" ht="56" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:59" ht="26.4">
       <c r="A85" s="162">
         <v>5</v>
       </c>
@@ -20238,13 +20235,13 @@
       <c r="D85" s="163"/>
       <c r="E85" s="164"/>
       <c r="F85" s="233" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G85" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H85" s="232" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I85" s="166">
         <v>43696</v>
@@ -20266,7 +20263,7 @@
         <v>0.6</v>
       </c>
       <c r="P85" s="234" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="Q85" s="130"/>
       <c r="R85" s="131">
@@ -20425,7 +20422,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:59" ht="28" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:59" ht="16.8">
       <c r="A86" s="162">
         <v>5</v>
       </c>
@@ -20438,13 +20435,13 @@
       <c r="D86" s="163"/>
       <c r="E86" s="164"/>
       <c r="F86" s="233" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G86" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H86" s="232" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I86" s="166">
         <v>43696</v>
@@ -20468,7 +20465,7 @@
         <v>1</v>
       </c>
       <c r="P86" s="234" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q86" s="130"/>
       <c r="R86" s="131">
@@ -20627,7 +20624,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:59" ht="16.8">
       <c r="A87" s="162">
         <v>5</v>
       </c>
@@ -20640,10 +20637,10 @@
       <c r="D87" s="163"/>
       <c r="E87" s="164"/>
       <c r="F87" s="233" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G87" s="231" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H87" s="232" t="s">
         <v>223</v>
@@ -20656,7 +20653,7 @@
       <c r="N87" s="168"/>
       <c r="O87" s="169"/>
       <c r="P87" s="286" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q87" s="130"/>
       <c r="R87" s="131" t="str">
@@ -20815,7 +20812,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:59" ht="16.8">
       <c r="A88" s="162">
         <v>5</v>
       </c>
@@ -20828,13 +20825,13 @@
       <c r="D88" s="163"/>
       <c r="E88" s="164"/>
       <c r="F88" s="233" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G88" s="231" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H88" s="223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I88" s="166"/>
       <c r="J88" s="166"/>
@@ -21001,7 +20998,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:59" ht="16.8">
       <c r="A89" s="162">
         <v>5</v>
       </c>
@@ -21014,13 +21011,13 @@
       <c r="D89" s="163"/>
       <c r="E89" s="164"/>
       <c r="F89" s="233" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G89" s="222" t="s">
+        <v>266</v>
+      </c>
+      <c r="H89" s="223" t="s">
         <v>267</v>
-      </c>
-      <c r="H89" s="223" t="s">
-        <v>268</v>
       </c>
       <c r="I89" s="166"/>
       <c r="J89" s="166"/>
@@ -21030,7 +21027,7 @@
       <c r="N89" s="168"/>
       <c r="O89" s="169"/>
       <c r="P89" s="286" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q89" s="130"/>
       <c r="R89" s="131" t="str">
@@ -21189,7 +21186,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:59" ht="16.8">
       <c r="A90" s="162">
         <v>5</v>
       </c>
@@ -21202,13 +21199,13 @@
       <c r="D90" s="163"/>
       <c r="E90" s="164"/>
       <c r="F90" s="233" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G90" s="222" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H90" s="223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I90" s="166"/>
       <c r="J90" s="166"/>
@@ -21375,7 +21372,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:59" ht="16.8">
       <c r="A91" s="162">
         <v>5</v>
       </c>
@@ -21555,7 +21552,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:59" ht="16.8">
       <c r="A92" s="254">
         <v>5</v>
       </c>
@@ -21566,7 +21563,7 @@
       <c r="D92" s="255"/>
       <c r="E92" s="256"/>
       <c r="F92" s="265" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G92" s="257"/>
       <c r="H92" s="258"/>
@@ -21739,7 +21736,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:59" ht="16.8">
       <c r="A93" s="162">
         <v>5</v>
       </c>
@@ -21752,13 +21749,13 @@
       <c r="D93" s="163"/>
       <c r="E93" s="164"/>
       <c r="F93" s="233" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G93" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H93" s="232" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I93" s="166">
         <v>43700</v>
@@ -21778,7 +21775,7 @@
         <v>0</v>
       </c>
       <c r="P93" s="170" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q93" s="130"/>
       <c r="R93" s="131">
@@ -21937,7 +21934,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:59" ht="16.8">
       <c r="A94" s="162">
         <v>5</v>
       </c>
@@ -21950,13 +21947,13 @@
       <c r="D94" s="163"/>
       <c r="E94" s="164"/>
       <c r="F94" s="219" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G94" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H94" s="232" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I94" s="166">
         <v>43704</v>
@@ -21976,7 +21973,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="170" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q94" s="130"/>
       <c r="R94" s="131">
@@ -22135,7 +22132,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:59" ht="16.8">
       <c r="A95" s="162">
         <v>5</v>
       </c>
@@ -22151,10 +22148,10 @@
         <v>198</v>
       </c>
       <c r="G95" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H95" s="232" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I95" s="166">
         <v>43703</v>
@@ -22331,7 +22328,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:59" ht="16.8">
       <c r="A96" s="162">
         <v>5</v>
       </c>
@@ -22344,13 +22341,13 @@
       <c r="D96" s="163"/>
       <c r="E96" s="164"/>
       <c r="F96" s="219" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G96" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H96" s="232" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I96" s="166">
         <v>43710</v>
@@ -22527,7 +22524,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:59" ht="16.8">
       <c r="A97" s="162">
         <v>5</v>
       </c>
@@ -22543,10 +22540,10 @@
         <v>207</v>
       </c>
       <c r="G97" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H97" s="232" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I97" s="166">
         <v>43710</v>
@@ -22615,7 +22612,7 @@
       <c r="BF97" s="134"/>
       <c r="BG97" s="135"/>
     </row>
-    <row r="98" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:59" ht="16.8">
       <c r="A98" s="162">
         <v>5</v>
       </c>
@@ -22631,10 +22628,10 @@
         <v>210</v>
       </c>
       <c r="G98" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H98" s="232" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I98" s="166">
         <v>43710</v>
@@ -22811,7 +22808,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:59" ht="16.8">
       <c r="A99" s="162">
         <v>5</v>
       </c>
@@ -22827,10 +22824,10 @@
         <v>199</v>
       </c>
       <c r="G99" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H99" s="232" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I99" s="166">
         <v>43710</v>
@@ -23007,7 +23004,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:59" ht="16.8">
       <c r="A100" s="162">
         <v>5</v>
       </c>
@@ -23023,10 +23020,10 @@
         <v>208</v>
       </c>
       <c r="G100" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H100" s="232" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I100" s="166">
         <v>43710</v>
@@ -23203,7 +23200,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:59" ht="16.8">
       <c r="A101" s="162">
         <v>5</v>
       </c>
@@ -23219,10 +23216,10 @@
         <v>209</v>
       </c>
       <c r="G101" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H101" s="232" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I101" s="166">
         <v>43710</v>
@@ -23399,7 +23396,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:59" ht="16.8">
       <c r="A102" s="162">
         <v>5</v>
       </c>
@@ -23579,7 +23576,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:59" ht="16.8">
       <c r="A103" s="242">
         <v>6</v>
       </c>
@@ -23761,7 +23758,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:59" ht="16.8">
       <c r="A104" s="162">
         <v>6</v>
       </c>
@@ -23775,10 +23772,10 @@
         <v>200</v>
       </c>
       <c r="G104" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H104" s="223" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I104" s="166">
         <v>43712</v>
@@ -23955,7 +23952,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:59" ht="16.8">
       <c r="A105" s="162">
         <v>6</v>
       </c>
@@ -23966,13 +23963,13 @@
       <c r="D105" s="163"/>
       <c r="E105" s="164"/>
       <c r="F105" s="285" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G105" s="222" t="s">
+        <v>266</v>
+      </c>
+      <c r="H105" s="223" t="s">
         <v>267</v>
-      </c>
-      <c r="H105" s="223" t="s">
-        <v>268</v>
       </c>
       <c r="I105" s="166"/>
       <c r="J105" s="166"/>
@@ -24139,7 +24136,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:59" ht="16.8">
       <c r="A106" s="162">
         <v>6</v>
       </c>
@@ -24317,7 +24314,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:59" ht="16.8">
       <c r="A107" s="242">
         <v>7</v>
       </c>
@@ -24499,7 +24496,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:59" ht="16.8">
       <c r="A108" s="162">
         <v>7</v>
       </c>
@@ -24510,13 +24507,13 @@
       <c r="D108" s="163"/>
       <c r="E108" s="164"/>
       <c r="F108" s="285" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G108" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H108" s="223" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I108" s="166">
         <v>43712</v>
@@ -24693,7 +24690,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:59" ht="16.8">
       <c r="A109" s="162">
         <v>7</v>
       </c>
@@ -24704,13 +24701,13 @@
       <c r="D109" s="163"/>
       <c r="E109" s="164"/>
       <c r="F109" s="285" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G109" s="222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H109" s="223" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I109" s="166">
         <v>43713</v>
@@ -24887,7 +24884,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:59" ht="16.8">
       <c r="A110" s="162">
         <v>7</v>
       </c>
@@ -25065,7 +25062,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:59" ht="18" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:59" ht="16.8">
       <c r="A111" s="203"/>
       <c r="B111" s="204"/>
       <c r="C111" s="204"/>
@@ -25239,7 +25236,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:59" ht="19" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:59" ht="17.399999999999999" thickBot="1">
       <c r="A112" s="171"/>
       <c r="B112" s="172"/>
       <c r="C112" s="172"/>
@@ -25250,7 +25247,7 @@
       <c r="H112" s="216"/>
       <c r="I112" s="166"/>
       <c r="J112" s="176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K112" s="177" t="s">
         <v>154</v>
@@ -25412,7 +25409,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:24">
       <c r="A113" s="181"/>
       <c r="B113" s="182"/>
       <c r="C113" s="182"/>
@@ -25433,7 +25430,7 @@
       <c r="L113" s="187"/>
       <c r="M113" s="185">
         <f>MAX(M6:M111)</f>
-        <v>43689</v>
+        <v>43692</v>
       </c>
       <c r="N113" s="186">
         <f>SUM(N4:N111)</f>
@@ -25450,7 +25447,7 @@
       <c r="W113" s="130"/>
       <c r="X113" s="130"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:24">
       <c r="A114" s="171"/>
       <c r="B114" s="172"/>
       <c r="C114" s="172"/>
@@ -25484,7 +25481,7 @@
       <c r="W114" s="130"/>
       <c r="X114" s="130"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:24">
       <c r="A115" s="171"/>
       <c r="B115" s="172"/>
       <c r="C115" s="172"/>
@@ -25522,7 +25519,7 @@
       <c r="W115" s="130"/>
       <c r="X115" s="130"/>
     </row>
-    <row r="116" spans="1:24" ht="19" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" ht="17.399999999999999" thickBot="1">
       <c r="A116" s="192"/>
       <c r="B116" s="193"/>
       <c r="C116" s="193"/>
@@ -25548,7 +25545,7 @@
       <c r="W116" s="130"/>
       <c r="X116" s="146"/>
     </row>
-    <row r="117" spans="1:24" ht="18" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:24" ht="16.8">
       <c r="A117" s="122"/>
       <c r="B117" s="122"/>
       <c r="C117" s="122"/>
@@ -25573,7 +25570,7 @@
       <c r="V117" s="139"/>
       <c r="W117" s="139"/>
     </row>
-    <row r="118" spans="1:24" ht="18" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:24" ht="16.8">
       <c r="A118" s="122"/>
       <c r="B118" s="122"/>
       <c r="C118" s="122"/>
@@ -25610,7 +25607,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="18" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:24" ht="16.8">
       <c r="A119" s="122"/>
       <c r="B119" s="122"/>
       <c r="C119" s="122"/>
@@ -25653,7 +25650,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="18" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:24" ht="16.8">
       <c r="A120" s="122"/>
       <c r="B120" s="122"/>
       <c r="C120" s="122"/>
@@ -25672,7 +25669,7 @@
       <c r="P120" s="130"/>
       <c r="Q120" s="130"/>
     </row>
-    <row r="121" spans="1:24" ht="18" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:24" ht="16.8">
       <c r="A121" s="122"/>
       <c r="B121" s="122"/>
       <c r="C121" s="122"/>
@@ -25699,7 +25696,7 @@
       <c r="V121" s="122"/>
       <c r="W121" s="122"/>
     </row>
-    <row r="122" spans="1:24" ht="18" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:24" ht="16.8">
       <c r="A122" s="122"/>
       <c r="B122" s="122"/>
       <c r="C122" s="122"/>
@@ -25726,7 +25723,7 @@
       <c r="V122" s="122"/>
       <c r="W122" s="122"/>
     </row>
-    <row r="123" spans="1:24" ht="18" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:24" ht="16.8">
       <c r="A123" s="122"/>
       <c r="B123" s="122"/>
       <c r="C123" s="122"/>
@@ -25753,7 +25750,7 @@
       <c r="V123" s="122"/>
       <c r="W123" s="122"/>
     </row>
-    <row r="124" spans="1:24" ht="18" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:24" ht="16.8">
       <c r="R124" s="149" t="s">
         <v>147</v>
       </c>
@@ -25763,7 +25760,7 @@
       <c r="V124" s="122"/>
       <c r="W124" s="122"/>
     </row>
-    <row r="125" spans="1:24" ht="18" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:24" ht="16.8">
       <c r="R125" s="150" t="s">
         <v>148</v>
       </c>
@@ -25773,12 +25770,12 @@
       <c r="V125" s="122"/>
       <c r="W125" s="122"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:24">
       <c r="R126" s="150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:24">
       <c r="R127" s="150"/>
     </row>
   </sheetData>
@@ -25812,48 +25809,53 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="L7:L12 L16:L20 L24:L32 L34:L39 L42:L45 L47:L51 L53:L55 L58:L59 L61:L67 L70:L71 L73:L74 L76:L77 L80:L91 L93:L102 L104:L106 L108:L110 L22">
-    <cfRule type="expression" dxfId="8" priority="2196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2199" stopIfTrue="1">
       <formula>AND(($L7=""),AND(($I7&lt;&gt;""),($I7&lt;=$M$2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M12 M16:M20 M24:M32 M34:M39 M42:M45 M47:M51 M53:M55 M58:M59 M61:M67 M70:M71 M73:M74 M76:M77 M80:M91 M93:M102 M104:M106 M108:M110 M22">
-    <cfRule type="expression" dxfId="7" priority="2195" stopIfTrue="1">
+  <conditionalFormatting sqref="M7:M12 M16:M19 M24:M32 M34:M39 M42:M45 M47:M51 M53:M55 M58:M59 M61:M67 M70:M71 M73:M74 M76:M77 M80:M91 M93:M102 M104:M106 M108:M110 M22">
+    <cfRule type="expression" dxfId="13" priority="2198" stopIfTrue="1">
       <formula>AND(($M7=""),AND(($J7&lt;&gt;""),($J7&lt;=$M$2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:O12 O16:O20 O24:O32 O34:O39 O42:O45 O47:O51 O53:O55 O58:O59 O61:O67 O70:O71 O73:O74 O76:O77 O80:O91 O104:O106 O108:O110 O93:O102 O22">
-    <cfRule type="expression" dxfId="6" priority="2193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2196" stopIfTrue="1">
       <formula>AND(($O7&lt;1),AND(($J7&lt;&gt;""),($J7&lt;$M$2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:BG11">
-    <cfRule type="expression" dxfId="5" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="233" stopIfTrue="1">
       <formula>AND(($I6&lt;&gt;""),AND(Y$4&gt;=$I6,Y$4&lt;=$J6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:BG20 Y22:BG112">
-    <cfRule type="expression" dxfId="4" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="231" stopIfTrue="1">
       <formula>OR(Y$5="六",Y$5="日")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>AND(($L21=""),AND(($I21&lt;&gt;""),($I21&lt;=$M$2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>AND(($M21=""),AND(($J21&lt;&gt;""),($J21&lt;=$M$2)))</formula>
+  <conditionalFormatting sqref="Y21:BG21">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>OR(Y$5="六",Y$5="日")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>AND(($O21&lt;1),AND(($J21&lt;&gt;""),($J21&lt;$M$2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y21:BG21">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>OR(Y$5="六",Y$5="日")</formula>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>AND(($L20=""),AND(($I20&lt;&gt;""),($I20&lt;=$M$2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(($L21=""),AND(($I21&lt;&gt;""),($I21&lt;=$M$2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -25876,16 +25878,16 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A6:IV11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="2.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0.6640625" style="4" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="10.6640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="7.6640625" style="4" customWidth="1"/>
@@ -25898,22 +25900,22 @@
     <col min="27" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="31" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="349" t="s">
+    <row r="1" spans="1:25" s="31" customFormat="1" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A1" s="341" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
       <c r="N1" s="12" t="s">
         <v>61</v>
       </c>
@@ -25929,22 +25931,22 @@
       <c r="R1" s="13"/>
       <c r="S1" s="14"/>
       <c r="T1" s="15"/>
-      <c r="U1" s="338"/>
+      <c r="U1" s="330"/>
     </row>
-    <row r="2" spans="1:25" s="31" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="351"/>
-      <c r="B2" s="352"/>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
-      <c r="F2" s="352"/>
-      <c r="G2" s="352"/>
-      <c r="H2" s="352"/>
-      <c r="I2" s="352"/>
-      <c r="J2" s="352"/>
-      <c r="K2" s="352"/>
-      <c r="L2" s="352"/>
-      <c r="M2" s="352"/>
+    <row r="2" spans="1:25" s="31" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A2" s="343"/>
+      <c r="B2" s="344"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="344"/>
+      <c r="M2" s="344"/>
       <c r="N2" s="16" t="s">
         <v>18</v>
       </c>
@@ -25956,18 +25958,18 @@
       <c r="R2" s="19"/>
       <c r="S2" s="20"/>
       <c r="T2" s="21"/>
-      <c r="U2" s="339"/>
+      <c r="U2" s="331"/>
     </row>
-    <row r="3" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:25" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="353" t="s">
+    <row r="3" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="4" spans="1:25" ht="12.45" customHeight="1">
+      <c r="A4" s="345" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="354"/>
-      <c r="C4" s="354"/>
-      <c r="D4" s="355"/>
-      <c r="E4" s="355"/>
-      <c r="F4" s="358" t="s">
+      <c r="B4" s="346"/>
+      <c r="C4" s="346"/>
+      <c r="D4" s="347"/>
+      <c r="E4" s="347"/>
+      <c r="F4" s="350" t="s">
         <v>57</v>
       </c>
       <c r="G4" s="36" t="s">
@@ -25982,39 +25984,39 @@
       <c r="J4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="337" t="s">
+      <c r="K4" s="329" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="335" t="s">
+      <c r="L4" s="327" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="345" t="s">
+      <c r="M4" s="337" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="342" t="s">
+      <c r="N4" s="334" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="343"/>
-      <c r="P4" s="344"/>
-      <c r="Q4" s="342" t="s">
+      <c r="O4" s="335"/>
+      <c r="P4" s="336"/>
+      <c r="Q4" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="R4" s="343"/>
-      <c r="S4" s="344"/>
-      <c r="T4" s="347" t="s">
+      <c r="R4" s="335"/>
+      <c r="S4" s="336"/>
+      <c r="T4" s="339" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="340" t="s">
+      <c r="U4" s="332" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="356"/>
-      <c r="B5" s="357"/>
-      <c r="C5" s="357"/>
-      <c r="D5" s="357"/>
-      <c r="E5" s="357"/>
-      <c r="F5" s="359"/>
+    <row r="5" spans="1:25" ht="25.05" customHeight="1" thickBot="1">
+      <c r="A5" s="348"/>
+      <c r="B5" s="349"/>
+      <c r="C5" s="349"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="351"/>
       <c r="G5" s="35"/>
       <c r="H5" s="37" t="s">
         <v>26</v>
@@ -26025,9 +26027,9 @@
       <c r="J5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="336"/>
-      <c r="L5" s="336"/>
-      <c r="M5" s="346"/>
+      <c r="K5" s="328"/>
+      <c r="L5" s="328"/>
+      <c r="M5" s="338"/>
       <c r="N5" s="22" t="s">
         <v>55</v>
       </c>
@@ -26046,8 +26048,8 @@
       <c r="S5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="348"/>
-      <c r="U5" s="341"/>
+      <c r="T5" s="340"/>
+      <c r="U5" s="333"/>
       <c r="W5" s="32" t="s">
         <v>30</v>
       </c>
@@ -26058,7 +26060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="44">
         <v>0</v>
       </c>
@@ -26088,7 +26090,7 @@
       <c r="X6" s="53"/>
       <c r="Y6" s="53"/>
     </row>
-    <row r="7" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="44">
         <v>0</v>
       </c>
@@ -26147,7 +26149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="44">
         <v>0</v>
       </c>
@@ -26203,7 +26205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="44">
         <v>0</v>
       </c>
@@ -26256,7 +26258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="44">
         <v>0</v>
       </c>
@@ -26309,7 +26311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="44">
         <v>0</v>
       </c>
@@ -26360,7 +26362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="44"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
@@ -26395,7 +26397,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:25" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" s="87" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="88"/>
       <c r="B13" s="89"/>
       <c r="C13" s="89"/>
@@ -26431,7 +26433,7 @@
       <c r="X13" s="100"/>
       <c r="Y13" s="100"/>
     </row>
-    <row r="14" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="44">
         <v>1</v>
       </c>
@@ -26461,7 +26463,7 @@
       <c r="X14" s="53"/>
       <c r="Y14" s="53"/>
     </row>
-    <row r="15" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="44">
         <v>1</v>
       </c>
@@ -26517,7 +26519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="44">
         <v>1</v>
       </c>
@@ -26568,7 +26570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="44">
         <v>1</v>
       </c>
@@ -26617,7 +26619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="44">
         <v>1</v>
       </c>
@@ -26666,7 +26668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="44">
         <v>1</v>
       </c>
@@ -26715,7 +26717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="44">
         <v>1</v>
       </c>
@@ -26766,7 +26768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="44"/>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -26792,7 +26794,7 @@
       <c r="X21" s="67"/>
       <c r="Y21" s="67"/>
     </row>
-    <row r="22" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -26839,7 +26841,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -26900,7 +26902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -26935,7 +26937,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -26986,7 +26988,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -27047,7 +27049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -27099,7 +27101,7 @@
       <c r="X27" s="67"/>
       <c r="Y27" s="67"/>
     </row>
-    <row r="28" spans="1:25" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -27134,7 +27136,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -27185,7 +27187,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -27246,7 +27248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -27307,7 +27309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -27368,7 +27370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -27429,7 +27431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -27490,7 +27492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="52" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:25" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -27525,7 +27527,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:25" s="52" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:25" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -27566,7 +27568,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:25" s="52" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -27609,7 +27611,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:25" s="52" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:25" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -27652,7 +27654,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -27687,7 +27689,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -27738,7 +27740,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -27799,7 +27801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -27860,7 +27862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -27921,7 +27923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -27982,7 +27984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -28043,7 +28045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -28104,7 +28106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -28139,7 +28141,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="44">
         <v>2</v>
       </c>
@@ -28190,7 +28192,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="44">
         <v>2</v>
       </c>
@@ -28251,7 +28253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="44">
         <v>2</v>
       </c>
@@ -28312,7 +28314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="44">
         <v>2</v>
       </c>
@@ -28373,7 +28375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="44">
         <v>2</v>
       </c>
@@ -28428,7 +28430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="44"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -28463,7 +28465,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="105">
         <v>2</v>
       </c>
@@ -28506,7 +28508,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="105">
         <v>2</v>
       </c>
@@ -28551,7 +28553,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="44"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -28577,7 +28579,7 @@
       <c r="X56" s="67"/>
       <c r="Y56" s="67"/>
     </row>
-    <row r="57" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="44">
         <v>2</v>
       </c>
@@ -28628,7 +28630,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="44">
         <v>2</v>
       </c>
@@ -28689,7 +28691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="44">
         <v>2</v>
       </c>
@@ -28750,7 +28752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="44">
         <v>2</v>
       </c>
@@ -28811,7 +28813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="44"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -28837,7 +28839,7 @@
       <c r="X61" s="67"/>
       <c r="Y61" s="67"/>
     </row>
-    <row r="62" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="44">
         <v>2</v>
       </c>
@@ -28888,7 +28890,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="44">
         <v>2</v>
       </c>
@@ -28949,7 +28951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="44">
         <v>2</v>
       </c>
@@ -29010,7 +29012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="44"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -29036,7 +29038,7 @@
       <c r="X65" s="67"/>
       <c r="Y65" s="67"/>
     </row>
-    <row r="66" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -29079,7 +29081,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -29130,7 +29132,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -29193,7 +29195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -29256,7 +29258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -29319,7 +29321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -29382,7 +29384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -29443,7 +29445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="44"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -29469,7 +29471,7 @@
       <c r="X73" s="67"/>
       <c r="Y73" s="67"/>
     </row>
-    <row r="74" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -29512,7 +29514,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -29563,7 +29565,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -29626,7 +29628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -29689,7 +29691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -29752,7 +29754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -29815,7 +29817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -29876,7 +29878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="44"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -29902,7 +29904,7 @@
       <c r="X81" s="67"/>
       <c r="Y81" s="67"/>
     </row>
-    <row r="82" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="44">
         <v>2</v>
       </c>
@@ -29945,7 +29947,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="44">
         <v>2</v>
       </c>
@@ -29990,7 +29992,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="44">
         <v>2</v>
       </c>
@@ -30047,7 +30049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="44">
         <v>2</v>
       </c>
@@ -30104,7 +30106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="44">
         <v>2</v>
       </c>
@@ -30161,7 +30163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="44">
         <v>2</v>
       </c>
@@ -30218,7 +30220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="44">
         <v>2</v>
       </c>
@@ -30273,7 +30275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="44">
         <v>2</v>
       </c>
@@ -30328,7 +30330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="44"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -30363,7 +30365,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -30406,7 +30408,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -30461,7 +30463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -30516,7 +30518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="44"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -30551,7 +30553,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -30606,7 +30608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -30641,7 +30643,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -30696,7 +30698,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -30731,7 +30733,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -30768,7 +30770,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -30819,7 +30821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="1">
         <v>3</v>
       </c>
@@ -30870,7 +30872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -30921,7 +30923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="1">
         <v>3</v>
       </c>
@@ -30972,7 +30974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="1">
         <v>3</v>
       </c>
@@ -31023,7 +31025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -31058,7 +31060,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -31095,7 +31097,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="1">
         <v>4</v>
       </c>
@@ -31144,7 +31146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="1">
         <v>4</v>
       </c>
@@ -31193,7 +31195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="1">
         <v>4</v>
       </c>
@@ -31242,7 +31244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -31273,7 +31275,7 @@
       <c r="X110" s="53"/>
       <c r="Y110" s="53"/>
     </row>
-    <row r="111" spans="1:26" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:26" s="84" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="72"/>
       <c r="B111" s="73"/>
       <c r="C111" s="73"/>
@@ -31302,7 +31304,7 @@
       <c r="U111" s="83"/>
       <c r="W111" s="85"/>
     </row>
-    <row r="112" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -31337,7 +31339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -31376,7 +31378,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:26" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -31402,7 +31404,7 @@
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:26">
       <c r="N115" s="52"/>
       <c r="O115" s="52"/>
       <c r="P115" s="52"/>
@@ -31414,7 +31416,7 @@
       <c r="V115" s="52"/>
       <c r="W115" s="71"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:26">
       <c r="N116" s="52"/>
       <c r="O116" s="52"/>
       <c r="P116" s="52"/>
@@ -31426,7 +31428,7 @@
       <c r="V116" s="52"/>
       <c r="W116" s="71"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:26">
       <c r="N117" s="52"/>
       <c r="O117" s="52"/>
       <c r="P117" s="52"/>
@@ -31438,7 +31440,7 @@
       <c r="V117" s="52"/>
       <c r="W117" s="71"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:26">
       <c r="N118" s="52"/>
       <c r="O118" s="52"/>
       <c r="P118" s="52"/>
@@ -31483,15 +31485,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>63500</xdr:colOff>
+                <xdr:colOff>60960</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>177800</xdr:colOff>
+                <xdr:colOff>175260</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>177800</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -31513,17 +31515,17 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="117" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="117" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="117" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="117" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="117" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="117" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="117" customWidth="1"/>
-    <col min="5" max="6" width="16.1640625" style="117" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="117"/>
+    <col min="5" max="6" width="16.109375" style="117" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="117"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5">
       <c r="B2" s="224" t="s">
         <v>152</v>
       </c>
@@ -31537,7 +31539,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5">
       <c r="B3" s="225">
         <v>1</v>
       </c>
@@ -31549,7 +31551,7 @@
       </c>
       <c r="E3" s="228"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5">
       <c r="B4" s="225">
         <v>2</v>
       </c>
@@ -31561,7 +31563,7 @@
       </c>
       <c r="E4" s="229"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5">
       <c r="B5" s="225">
         <v>3</v>
       </c>
@@ -31569,7 +31571,7 @@
       <c r="D5" s="226"/>
       <c r="E5" s="229"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5">
       <c r="B6" s="225">
         <v>4</v>
       </c>
@@ -31577,7 +31579,7 @@
       <c r="D6" s="226"/>
       <c r="E6" s="229"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5">
       <c r="B7" s="225">
         <v>5</v>
       </c>
@@ -31585,7 +31587,7 @@
       <c r="D7" s="226"/>
       <c r="E7" s="229"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5">
       <c r="B8" s="225">
         <v>6</v>
       </c>
@@ -31593,7 +31595,7 @@
       <c r="D8" s="226"/>
       <c r="E8" s="229"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5">
       <c r="B9" s="225">
         <v>7</v>
       </c>
@@ -31601,7 +31603,7 @@
       <c r="D9" s="226"/>
       <c r="E9" s="229"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5">
       <c r="B10" s="225">
         <v>8</v>
       </c>
@@ -31609,7 +31611,7 @@
       <c r="D10" s="226"/>
       <c r="E10" s="229"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5">
       <c r="B11" s="225">
         <v>9</v>
       </c>
@@ -31617,7 +31619,7 @@
       <c r="D11" s="226"/>
       <c r="E11" s="229"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5">
       <c r="B12" s="225">
         <v>10</v>
       </c>
@@ -31625,7 +31627,7 @@
       <c r="D12" s="226"/>
       <c r="E12" s="229"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5">
       <c r="B13" s="225">
         <v>11</v>
       </c>
@@ -31633,7 +31635,7 @@
       <c r="D13" s="226"/>
       <c r="E13" s="229"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5">
       <c r="B14" s="225">
         <v>12</v>
       </c>
@@ -31641,7 +31643,7 @@
       <c r="D14" s="226"/>
       <c r="E14" s="229"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5">
       <c r="B15" s="225">
         <v>13</v>
       </c>
@@ -31649,7 +31651,7 @@
       <c r="D15" s="226"/>
       <c r="E15" s="229"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5">
       <c r="B16" s="225">
         <v>14</v>
       </c>
@@ -31657,7 +31659,7 @@
       <c r="D16" s="226"/>
       <c r="E16" s="229"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="225">
         <v>15</v>
       </c>
@@ -31665,7 +31667,7 @@
       <c r="D17" s="226"/>
       <c r="E17" s="229"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="225">
         <v>16</v>
       </c>
@@ -31673,7 +31675,7 @@
       <c r="D18" s="226"/>
       <c r="E18" s="229"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="225">
         <v>17</v>
       </c>
@@ -31681,7 +31683,7 @@
       <c r="D19" s="226"/>
       <c r="E19" s="230"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="225">
         <v>18</v>
       </c>
@@ -31689,7 +31691,7 @@
       <c r="D20" s="226"/>
       <c r="E20" s="230"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="225">
         <v>19</v>
       </c>
@@ -31697,7 +31699,7 @@
       <c r="D21" s="226"/>
       <c r="E21" s="230"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="B22" s="225">
         <v>20</v>
       </c>
